--- a/biology/Biochimie/Motiline/Motiline.xlsx
+++ b/biology/Biochimie/Motiline/Motiline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La motiline[1] est une hormone gastro-intestinale polypeptidique constituée de 22 acides aminés sécrétée par les cellules entérochromaffines (EC) et les cellules M de la muqueuse du duodénum.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La motiline est une hormone gastro-intestinale polypeptidique constituée de 22 acides aminés sécrétée par les cellules entérochromaffines (EC) et les cellules M de la muqueuse du duodénum.
 Elle favorise l'activité motrice de l'estomac lorsque le pH est haut (basique) et inhibe sa motricité lorsque ce dernier est bas (acide).
 La motiline exercerait un effet stimulateur sur la musculeuse du tube digestif, et semble agir comme un régulateur de la motilité dans les périodes entre deux repas, préparant de ce fait l'intestin au prochain repas.
 La motiline aurait un rôle régulateur de la vidange gastrique.
